--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -259,7 +259,7 @@
     <t>Univ. of California, Berkeley, USA</t>
   </si>
   <si>
-    <t>Universit'e de Paris 7</t>
+    <t>Universit\'e de Paris 7</t>
   </si>
   <si>
     <t>University of Zagreb, Zagreb, Croatia</t>
@@ -292,16 +292,16 @@
     <t>Univ. Leipzig</t>
   </si>
   <si>
-    <t>Universit"at Leipzig, Leipzig, F.R.G.</t>
-  </si>
-  <si>
-    <t>Universit"at Marburg/Lahn, F.R.G.</t>
+    <t>Universit\"at Leipzig, Leipzig, F.R.G.</t>
+  </si>
+  <si>
+    <t>Universit\"at Marburg/Lahn, F.R.G.</t>
   </si>
   <si>
     <t>Humboldt-Univ.~zu Berlin, Berlin, Germany</t>
   </si>
   <si>
-    <t>Universit"at T"ubingen, T"ubingen, Germany</t>
+    <t>Universit\"at T\"ubingen, T\"ubingen, Germany</t>
   </si>
   <si>
     <t>Univ. of California, Berkeley, Ca., USA</t>
@@ -313,17 +313,17 @@
     <t>Magdalen College, Univ. of Oxford</t>
   </si>
   <si>
-    <t>Universit"at Leipzig, Leipzig, Germany</t>
-  </si>
-  <si>
-    <t>Universit"at Marburg/Lahn, FRG</t>
-  </si>
-  <si>
-    <t>Universit"at Wien, Mathematisches Institut, Wien Vienna,
+    <t>Universit\"at Leipzig, Leipzig, Germany</t>
+  </si>
+  <si>
+    <t>Universit\"at Marburg/Lahn, FRG</t>
+  </si>
+  <si>
+    <t>Universit\"at Wien, Mathematisches Institut, Wien Vienna,
 Austria</t>
   </si>
   <si>
-    <t>Universidade de S~ao Paulo, Inst. Mat. Estat., Brasil</t>
+    <t>Universidade de S\~ao Paulo, Inst. Mat. Estat., Brasil</t>
   </si>
   <si>
     <t>Dalhousie Univ., Halifax, N.~S., Canada</t>
@@ -332,7 +332,7 @@
     <t>University of Iowa, Iowa City, U.S.A.</t>
   </si>
   <si>
-    <t>Texas A&amp;M Univ., College Station, TX, USA</t>
+    <t>Texas A\&amp;M Univ., College Station, TX, USA</t>
   </si>
   <si>
     <t>Indian Statistical Institute, New Delhi, India</t>
@@ -341,19 +341,19 @@
     <t>University of Oregon, U.S.A.</t>
   </si>
   <si>
-    <t>Universit"at Kiel, Kiel, Fed. Rep. Germany</t>
-  </si>
-  <si>
-    <t>Universit"at G"ottingen, G"ottingen, Germany</t>
+    <t>Universit\"at Kiel, Kiel, Fed. Rep. Germany</t>
+  </si>
+  <si>
+    <t>Universit\"at G\"ottingen, G\"ottingen, Germany</t>
   </si>
   <si>
     <t>Indiana Univ., Bloomington, U.S.A.</t>
   </si>
   <si>
-    <t>Johannes Gutenberg Universit"at Mainz, Mainz, F.R.G.</t>
-  </si>
-  <si>
-    <t>Eberhard-Karls-Universit"at T"ubingen, Mathematische Fakult"at</t>
+    <t>Johannes Gutenberg Universit\"at Mainz, Mainz, F.R.G.</t>
+  </si>
+  <si>
+    <t>Eberhard-Karls-Universit\"at T\"ubingen, Mathematische Fakult\"at</t>
   </si>
   <si>
     <t>Purdue University, West Lafayette, USA</t>
@@ -447,7 +447,7 @@
     <t>On Connes property T for von Neumann algebras</t>
   </si>
   <si>
-    <t>Syst`emes dynamiques non commutatifs et moyennabilit'e</t>
+    <t>Syst\`emes dynamiques non commutatifs et moyennabilit\'e</t>
   </si>
   <si>
     <t>On relative amenability for von Neumann algebras</t>
@@ -531,7 +531,7 @@
     <t>Clifford modules</t>
   </si>
   <si>
-    <t>Th'eorie de Galois pour une W*-Alg`ebre</t>
+    <t>Th\'eorie de Galois pour une W*-Alg\`ebre</t>
   </si>
   <si>
     <t>Dense operator on a KH-module</t>
@@ -541,15 +541,15 @@
 algebras</t>
   </si>
   <si>
-    <t>Th'eorie bivariante de Kasparov et op'erateurs non born'es
+    <t>Th\'eorie bivariante de Kasparov et op\'erateurs non born\'es
 dans les C*-modules hilbertiens</t>
   </si>
   <si>
-    <t>C*-alg`ebres de Hopf et th'eorie de Kasparov 'equivariante</t>
-  </si>
-  <si>
-    <t>Unitaires multiplicatifs et dualit'e pour les produits
-crois'es de C*-alg`ebres</t>
+    <t>C*-alg\`ebres de Hopf et th\'eorie de Kasparov \'equivariante</t>
+  </si>
+  <si>
+    <t>Unitaires multiplicatifs et dualit\'e pour les produits
+crois\'es de C*-alg\`ebres</t>
   </si>
   <si>
     <t>Homogeneous operators and systems of imprimitivity</t>
@@ -658,7 +658,7 @@
     <t>The regular ring of a finite AW*-algebra</t>
   </si>
   <si>
-    <t>N$times$N matrices over an AW*-algebra</t>
+    <t>N$\times$N matrices over an AW*-algebra</t>
   </si>
   <si>
     <t>Baer $*$-rings</t>
@@ -695,7 +695,7 @@
     <t>K-theory for Operator Algebras</t>
   </si>
   <si>
-    <t>D'eformations de C*-alg`ebres de Hopf</t>
+    <t>D\'eformations de C*-alg\`ebres de Hopf</t>
   </si>
   <si>
     <t>Tensor products of CX-algebras over CX</t>
@@ -959,13 +959,13 @@
   </si>
   <si>
     <t>Algebras almost commuting with Clifford algebras in a
-$rm II_infty$ factor</t>
-  </si>
-  <si>
-    <t>$rm L^2$-torsion invariants</t>
-  </si>
-  <si>
-    <t>Determinant lines, von Neumann algebras and $rm L^2$
+$\rm II_\infty$ factor</t>
+  </si>
+  <si>
+    <t>$\rm L^2$-torsion invariants</t>
+  </si>
+  <si>
+    <t>Determinant lines, von Neumann algebras and $\rm L^2$
 torsion</t>
   </si>
   <si>
@@ -1025,7 +1025,7 @@
     <t>A Hilbert C*-module for Gabor systems</t>
   </si>
   <si>
-    <t>Th'eor`eme d'imprimitivit'e pour repr'esentations dans les
+    <t>Th\'eor\`eme d'imprimitivit\'e pour repr\'esentations dans les
 C*-modules de Hilbert</t>
   </si>
   <si>
@@ -1035,7 +1035,7 @@
     <t>Crossed products and Morita equivalence</t>
   </si>
   <si>
-    <t>C*-alg'ebres et g'eom'etrie diff'erentielle</t>
+    <t>C*-alg\'ebres et g\'eom\'etrie diff\'erentielle</t>
   </si>
   <si>
     <t>Correspondances</t>
@@ -1057,10 +1057,10 @@
     <t>Yang-Mills for non-commutative two-tori</t>
   </si>
   <si>
-    <t>Introduction `a la g'eom'etrie non-commutative</t>
-  </si>
-  <si>
-    <t>G'eom'etrie Non Commutative</t>
+    <t>Introduction \`a la g\'eom\'etrie non-commutative</t>
+  </si>
+  <si>
+    <t>G\'eom\'etrie Non Commutative</t>
   </si>
   <si>
     <t>The metric aspects of commutative geometry</t>
@@ -1100,7 +1100,7 @@
     <t>On homomorphisms of matrix algebras of continuous functions</t>
   </si>
   <si>
-    <t>R'eduction du rang stable topologique dans les C*-alg`ebres
+    <t>R\'eduction du rang stable topologique dans les C*-alg\`ebres
 limites inductives</t>
   </si>
   <si>
@@ -1156,10 +1156,10 @@
 Hilbert C*-modules</t>
   </si>
   <si>
-    <t>Sur certains espaces consid'er'es par M. H. Stone</t>
-  </si>
-  <si>
-    <t>Champs continus d'espaces hilbertiens et de C*-alg`ebres</t>
+    <t>Sur certains espaces consid\'er\'es par M. H. Stone</t>
+  </si>
+  <si>
+    <t>Champs continus d'espaces hilbertiens et de C*-alg\`ebres</t>
   </si>
   <si>
     <t>The C*-algebra of a Hilbert Bimodule</t>
@@ -1238,7 +1238,7 @@
 Cuntz-Pimsner algebras</t>
   </si>
   <si>
-    <t>Zur Topologie auf dualen R"aumen kovarianter Systeme</t>
+    <t>Zur Topologie auf dualen R\"aumen kovarianter Systeme</t>
   </si>
   <si>
     <t>On induced covariant systems</t>
@@ -1342,7 +1342,7 @@
 operator spaces</t>
   </si>
   <si>
-    <t>$cal Ocal L_p$ spaces</t>
+    <t>$\cal O\cal L_p$ spaces</t>
   </si>
   <si>
     <t>Operator Spaces in Quantized Functional Analysis and Operator
@@ -1430,7 +1430,7 @@
   </si>
   <si>
     <t>Geometry of growth: approximation theorems for
-$rm L^2$-invariants</t>
+$\rm L^2$-invariants</t>
   </si>
   <si>
     <t>Von Neumann Betti numbers and Novikov type inequalities</t>
@@ -1500,7 +1500,7 @@
 supersymmetric quantum mechanics</t>
   </si>
   <si>
-    <t>Einige Aussagen "uber beschr"ankte Operatoren in
+    <t>Einige Aussagen \"uber beschr\"ankte Operatoren in
 Hilbertmoduln</t>
   </si>
   <si>
@@ -1510,8 +1510,8 @@
     <t>Hilbert modules and pseudo-Hilbert spaces, russian</t>
   </si>
   <si>
-    <t>Grundlegende Aussagen "uber nichtnegativ hermitesche Masse,
-Masse mit orthogonalen Werten sowie projektorwertige Masse</t>
+    <t>Grundlegende Aussagen \"uber nichtnegativ hermitesche Ma\sse,
+Ma\sse mit orthogonalen Werten sowie projektorwertige Ma\sse</t>
   </si>
   <si>
     <t>KK-theory of reduced free-product C*-algebras</t>
@@ -1524,7 +1524,7 @@
 entropy of some automorphisms</t>
   </si>
   <si>
-    <t>Der Periodit"atssatz f"ur AW*-Algebren</t>
+    <t>Der Periodit\"atssatz f\"ur AW*-Algebren</t>
   </si>
   <si>
     <t>W*-categories</t>
@@ -1590,7 +1590,7 @@
     <t>Operator-valued free entropy and modular frames</t>
   </si>
   <si>
-    <t>The injective factors of type $III_lambda$, $ 0&lt; lambda &lt;1$</t>
+    <t>The injective factors of type $III_\lambda$, $ 0&lt; \lambda &lt;1$</t>
   </si>
   <si>
     <t>The maximal GCR-ideal in an AW*-algebra</t>
@@ -1644,7 +1644,7 @@
     <t>Injective envelopes of dynamical systems</t>
   </si>
   <si>
-    <t>Infinite, $sigma$-finite, non-W*, AW*-factors</t>
+    <t>Infinite, $\sigma$-finite, non-W*, AW*-factors</t>
   </si>
   <si>
     <t>Stable range in AW*-algebras</t>
@@ -1666,10 +1666,10 @@
 autoduaux</t>
   </si>
   <si>
-    <t>Esp'erance conditionelle minimale</t>
-  </si>
-  <si>
-    <t>Inequalities of Schwarz and H"older type for random
+    <t>Esp\'erance conditionelle minimale</t>
+  </si>
+  <si>
+    <t>Inequalities of Schwarz and H\"older type for random
 operators</t>
   </si>
   <si>
@@ -1704,13 +1704,13 @@
     <t>C*-algebras and controlled topology</t>
   </si>
   <si>
-    <t>Stabilit'e des C*-alg'ebres de feuilletages</t>
+    <t>Stabilit\'e des C*-alg\'ebres de feuilletages</t>
   </si>
   <si>
     <t>Signature operator on Lipschitz manifolds and unbounded Kasparov bimodules</t>
   </si>
   <si>
-    <t>Fonctorialit'e en K-th'eorie bivariante pour les vari'et'es
+    <t>Fonctorialit\'e en K-th\'eorie bivariante pour les vari\'et\'es
 lipschitziennes</t>
   </si>
   <si>
@@ -1752,7 +1752,7 @@
   </si>
   <si>
     <t>Conditional independence and tensor products of certain
-Hilbert $L^infty$-modules</t>
+Hilbert $L^\infty$-modules</t>
   </si>
   <si>
     <t>Decomposition of modular frames on Hilbert C*-modules</t>
@@ -1866,11 +1866,11 @@
     <t>Morita equivalence for locally C*-algebras</t>
   </si>
   <si>
-    <t>Indice d'esp'erances conditionelles et alg`ebres de von
+    <t>Indice d'esp\'erances conditionelles et alg\`ebres de von
 Neumann finies</t>
   </si>
   <si>
-    <t>Bilinear forms on exact operator spaces and $BH otimes
+    <t>Bilinear forms on exact operator spaces and $BH \otimes
 BH$</t>
   </si>
   <si>
@@ -1903,7 +1903,7 @@
     <t>Remarks on strongly Morita equivalent C*-crossed products</t>
   </si>
   <si>
-    <t>Simplicity of the algebras $cal O_x$ of the bimodules
+    <t>Simplicity of the algebras $\cal O_x$ of the bimodules
 associated with the inclusions of simple C*-algebras with finite index</t>
   </si>
   <si>
@@ -2051,7 +2051,7 @@
     <t>Equivariant KK-theory and the Novikov conjecture</t>
   </si>
   <si>
-    <t>Groupes agissant sur des immeubles de Bruhat-Tits, K-th'eorie
+    <t>Groupes agissant sur des immeubles de Bruhat-Tits, K-th\'eorie
 operationelle et conjecture de Novikov</t>
   </si>
   <si>
@@ -2172,7 +2172,7 @@
     <t>Picard groups of irrational rotation C*-algebras</t>
   </si>
   <si>
-    <t>Einige Grundz"uge der Theorie der Hilbertmoduln</t>
+    <t>Einige Grundz\"uge der Theorie der Hilbertmoduln</t>
   </si>
   <si>
     <t>Correspondences and approximation properties for von Neumann
@@ -2258,7 +2258,7 @@
 Banach-Saks property</t>
   </si>
   <si>
-    <t>Morita equivalence of scattered C*-algebras and the Radon-Nikod'ym
+    <t>Morita equivalence of scattered C*-algebras and the Radon-Nikod\'ym
 property for imprimitivity bimodules</t>
   </si>
   <si>
@@ -2345,14 +2345,14 @@
     <t>Crossed products by abelian semigroups via transfer operators</t>
   </si>
   <si>
-    <t>Aufbau einer Szeg"o-Theorie f"ur rationale Matrixfunktionen</t>
+    <t>Aufbau einer Szeg\"o-Theorie f\"ur rationale Matrixfunktionen</t>
   </si>
   <si>
     <t>On the C*-envelope of approximately finite-dimensional operator
 algebras</t>
   </si>
   <si>
-    <t>The $M_infty$-bimodules of unital C*-algebras</t>
+    <t>The $M_\infty$-bimodules of unital C*-algebras</t>
   </si>
   <si>
     <t>Double B-centralizers of pre-Hilbert B-modules</t>
@@ -2384,7 +2384,7 @@
   </si>
   <si>
     <t>Die K-Theorie der C*-Algebra der Toeplitzoperatoren auf den
-Lie-Sph"aren</t>
+Lie-Spären</t>
   </si>
   <si>
     <t>Strong Morita equivalence of higher-dimensional noncommutative
@@ -2432,7 +2432,7 @@
 geometry</t>
   </si>
   <si>
-    <t>Delocalized $rm L^2$-invariants</t>
+    <t>Delocalized $\rm L^2$-invariants</t>
   </si>
   <si>
     <t>Linear operators in VH-spaces</t>
@@ -2469,7 +2469,7 @@
 and applications to $L^2$-invariants</t>
   </si>
   <si>
-    <t>$rm L^2$-Invarianten von Mannigfaltigkeiten und Gruppen</t>
+    <t>$\rm L^2$-Invarianten von Mannigfaltigkeiten und Gruppen</t>
   </si>
   <si>
     <t>Dimension theory of arbitrary modules over finite von Neumann
@@ -2481,10 +2481,10 @@
 Grothendieck groups, $L^2$-Euler characteristics and Burnside groups</t>
   </si>
   <si>
-    <t>$rm L^2$-torsion of hyperbolic manifolds of finite volume</t>
-  </si>
-  <si>
-    <t>$rm L^2$-invariants: Theory and Applications to Geometry
+    <t>$\rm L^2$-torsion of hyperbolic manifolds of finite volume</t>
+  </si>
+  <si>
+    <t>$\rm L^2$-invariants: Theory and Applications to Geometry
 and K-Theory</t>
   </si>
   <si>
@@ -2545,10 +2545,10 @@
     <t>The minimal operator module of a Banach module</t>
   </si>
   <si>
-    <t xml:space="preserve"> Semi-exactitude du bifoncteur de Kasparov 'equivariante</t>
-  </si>
-  <si>
-    <t>Hermitian K-theory over topological $ast$-algebras</t>
+    <t xml:space="preserve"> Semi-exactitude du bifoncteur de Kasparov \'equivariante</t>
+  </si>
+  <si>
+    <t>Hermitian K-theory over topological $\ast$-algebras</t>
   </si>
   <si>
     <t>Geometry of Vector Sheaves, I and II</t>
@@ -2565,7 +2565,7 @@
 finite W*-algebras engl.</t>
   </si>
   <si>
-    <t>On eigenvalues of the perturbed Schr"odinger operator with
+    <t>On eigenvalues of the perturbed Schr\"odinger operator with
 an irrational magnetic flow russ./engl.</t>
   </si>
   <si>
@@ -2604,7 +2604,7 @@
 equivalence</t>
   </si>
   <si>
-    <t>Cram'ers theorem on monotone matrix-valued functions and
+    <t>Cram\'ers theorem on monotone matrix-valued functions and
 the Wold decomposition</t>
   </si>
   <si>
@@ -2618,13 +2618,13 @@
     <t>Recent trends in multivariate prediction theory</t>
   </si>
   <si>
-    <t>$rm L^2$-acyclicity and $rm L^2$-torsion invariants</t>
+    <t>$\rm L^2$-acyclicity and $\rm L^2$-torsion invariants</t>
   </si>
   <si>
     <t>Von Neumann algebra invariants of Dirac Operators</t>
   </si>
   <si>
-    <t>$rm L^2$-invariants of covering spaces</t>
+    <t>$\rm L^2$-invariants of covering spaces</t>
   </si>
   <si>
     <t>Periodic distributions on C*-algebras</t>
@@ -2649,7 +2649,7 @@
     <t>Some applications of free Fisher information on frame theory</t>
   </si>
   <si>
-    <t>Resultados motivados por uma caracterizacc~ao de
+    <t>Resultados motivados por uma caracteriza\cc\~ao de
 operadores pseudo-diferenciais conjecturado por Rieffel</t>
   </si>
   <si>
@@ -2770,7 +2770,7 @@
 C*-modules</t>
   </si>
   <si>
-    <t>Eigenvalue inequalities and Poincar'e Duality in
+    <t>Eigenvalue inequalities and Poincar\'e Duality in
 noncommutative geometry</t>
   </si>
   <si>
@@ -2822,7 +2822,7 @@
   </si>
   <si>
     <t>Corrigendum to `On the simplicity of some Cuntz-Pimsner
-algebras', it Math.~Scand.  831998, 53-73</t>
+algebras', \it Math.~Scand.  831998, 53-73</t>
   </si>
   <si>
     <t>Bundles over groupoids</t>
@@ -3010,7 +3010,7 @@
   </si>
   <si>
     <t>Regularity of operators on essential extensions of
-$B_0cal H$</t>
+$B_0\cal H$</t>
   </si>
   <si>
     <t>Regular operators on Hilbert C*-modules</t>
@@ -3156,7 +3156,7 @@
     <t>Equivariant K-theory for Proper Actions</t>
   </si>
   <si>
-    <t>Representable K-theory for $sigma$-C*-algebras</t>
+    <t>Representable K-theory for $\sigma$-C*-algebras</t>
   </si>
   <si>
     <t>Modules with norms which take values in a C*-algebra</t>
@@ -3165,7 +3165,7 @@
     <t>Twisted crossed products by coactions</t>
   </si>
   <si>
-    <t>Induction parabolique et K-th'eorie de C*-alg`ebres maximales</t>
+    <t>Induction parabolique et K-th\'eorie de C*-alg\`ebres maximales</t>
   </si>
   <si>
     <t>The ideal structure of Cuntz-Krieger-Pimsner algebras and Cuntz-Krieger
@@ -3175,7 +3175,7 @@
     <t>Completely bounded maps between sets of Banach space operators</t>
   </si>
   <si>
-    <t>Espaces de Banach quantiques: une introduction `a la th'eorie
+    <t>Espaces de Banach quantiques: une introduction \`a la th\'eorie
 des espaces d'operateurs</t>
   </si>
   <si>
@@ -3192,7 +3192,7 @@
 tensor norms</t>
   </si>
   <si>
-    <t>Espaces d'op'erateurs: une nouvelle dualit'e</t>
+    <t>Espaces d'op\'erateurs: une nouvelle dualit\'e</t>
   </si>
   <si>
     <t>An introduction to the theory of operator spaces</t>
@@ -3212,7 +3212,7 @@
     <t>Range of traces on $K_o$ of reduced crossed products by free groups</t>
   </si>
   <si>
-    <t>Entropy and index for suactors</t>
+    <t>Entropy and index for subfactors</t>
   </si>
   <si>
     <t>A class of C*-algebras generalizing both Cuntz-Krieger algebras
@@ -3324,7 +3324,7 @@
 compact operators</t>
   </si>
   <si>
-    <t>Nichtkommutative $rm L^p,2$-R"aume und Hilbertmoduln</t>
+    <t>Nichtkommutative $\rm L^p,2$-R\"aume und Hilbertmoduln</t>
   </si>
   <si>
     <t>On a basic theorem of quaternionic modules</t>
@@ -3344,8 +3344,8 @@
     <t>Group von Neumann algebras and related algebras</t>
   </si>
   <si>
-    <t>Repr'esentationsdes produitscrois'es d'alg`ebres de
-gropoHides</t>
+    <t>Repr\'esentationsdes produitscrois\'es d'alg\`ebres de
+gropo\H\ides</t>
   </si>
   <si>
     <t>Cuntz-like algebras</t>
@@ -3468,7 +3468,7 @@
 by Takenouchi and Dyer</t>
   </si>
   <si>
-    <t>A structure theory in the regular $sigma$-completion of C*-algebras</t>
+    <t>A structure theory in the regular $\sigma$-completion of C*-algebras</t>
   </si>
   <si>
     <t>On normal AW*-algebras</t>
@@ -3513,7 +3513,7 @@
 by cardinal numbers</t>
   </si>
   <si>
-    <t>On $sigma$-normal C*-algebras</t>
+    <t>On $\sigma$-normal C*-algebras</t>
   </si>
   <si>
     <t>Dynamic systems and duality for monotone complete C*-algebras</t>
@@ -3523,7 +3523,7 @@
 with continuous time</t>
   </si>
   <si>
-    <t>A factorization algorithm for q$times$q matrix-valued
+    <t>A factorization algorithm for q$\times$q matrix-valued
 functions on the real line R</t>
   </si>
   <si>
@@ -3576,11 +3576,11 @@
 semantics and a decision procedure</t>
   </si>
   <si>
-    <t>Analysis on $partial$-manifolds of bounded geometry,
+    <t>Analysis on $\partial$-manifolds of bounded geometry,
 Hodge-de Rham isomorphism and $L^2$-index</t>
   </si>
   <si>
-    <t>Integrality of $rm L^2$-Betti numbers</t>
+    <t>Integrality of $\rm L^2$-Betti numbers</t>
   </si>
   <si>
     <t>$L^2$-determinant class and approximation of $L^2$-Betti
@@ -3635,7 +3635,7 @@
 groups</t>
   </si>
   <si>
-    <t>Modules projectifs et espaces fibr'es `a fibre vectorielle</t>
+    <t>Modules projectifs et espaces fibr\'es \`a fibre vectorielle</t>
   </si>
   <si>
     <t>Independence of the spectrum of an elliptic operator over a
@@ -3693,7 +3693,7 @@
     <t>Some remarks on Kasparov's theory</t>
   </si>
   <si>
-    <t>Une notion de nucle'arit'e en K-th'eorie d'apr`es J. Cuntz</t>
+    <t>Une notion de nucle\'arit\'e en K-th\'eorie d'apr\`es J. Cuntz</t>
   </si>
   <si>
     <t>Kasparov's bivariant K-theory and applications</t>
@@ -4002,8 +4002,8 @@
 calculus</t>
   </si>
   <si>
-    <t>Une g'en'eralisation du th'eor`eme de
-Kolmogorov-Aronszajn. Processus V-born'es q-dimensionelles: domaine
+    <t>Une g\'en\'eralisation du th\'eor\`eme de
+Kolmogorov-Aronszajn. Processus V-born\'es q-dimensionelles: domaine
 spectral</t>
   </si>
   <si>
@@ -4154,10 +4154,10 @@
     <t>A spectral theorem for normal operators an a Kaplansky-Hilbert module</t>
   </si>
   <si>
-    <t>On minimal $sigma$-completions of C*-algebras</t>
-  </si>
-  <si>
-    <t>Regular $sigma$-completions of C*-algebras</t>
+    <t>On minimal $\sigma$-completions of C*-algebras</t>
+  </si>
+  <si>
+    <t>Regular $\sigma$-completions of C*-algebras</t>
   </si>
   <si>
     <t>Wild AW*-factors and Kaplansky-Rickart algebras</t>
@@ -4175,7 +4175,7 @@
     <t>Paradoxical decompositions of the cube and injectivity</t>
   </si>
   <si>
-    <t>The higher $Gamma$-index for coverings of manifolds with
+    <t>The higher $\Gamma$-index for coverings of manifolds with
 boundaries</t>
   </si>
   <si>
@@ -4317,7 +4317,7 @@
   </si>
   <si>
     <t>Torsion of K-theory; bi-variable index and certain invariants
-of the essential commutant of $rm M_n C$, I,II</t>
+of the essential commutant of $\rm M_n C$, I,II</t>
   </si>
   <si>
     <t>Exponential rank and exponential length of operators
@@ -4342,7 +4342,7 @@
     <t>Projective multiresolution analysis and generalized sampling</t>
   </si>
   <si>
-    <t>Erste Aspekte zur Vorhersagetheorie station"arer Folgen in
+    <t>Erste Aspekte zur Vorhersagetheorie station\"arer Folgen in
 Hilbertmoduln</t>
   </si>
   <si>
@@ -4406,10 +4406,10 @@
     <t>P. Ara and M. Mathieu</t>
   </si>
   <si>
-    <t>L. Arambavsi'c</t>
-  </si>
-  <si>
-    <t>L. Arambavsi'c and R. Raji'c</t>
+    <t>L. Aramba\vsi\'c</t>
+  </si>
+  <si>
+    <t>L. Aramba\vsi\'c and R. Raji\'c</t>
   </si>
   <si>
     <t>A. V. Arkhangel'skij</t>
@@ -4451,10 +4451,10 @@
     <t>M. Baillet and Y. Denizeau and J.-F. Havet</t>
   </si>
   <si>
-    <t>D. Baki'c</t>
-  </si>
-  <si>
-    <t>D. Baki'c and B. Guljavs</t>
+    <t>D. Baki\'c</t>
+  </si>
+  <si>
+    <t>D. Baki\'c and B. Gulja\vs</t>
   </si>
   <si>
     <t>M. Banai</t>
@@ -4472,10 +4472,10 @@
     <t>T. Bates</t>
   </si>
   <si>
-    <t>H. Baumg"artel</t>
-  </si>
-  <si>
-    <t>H. Baumg"artel and F. Lled'o</t>
+    <t>H. Baumg\"artel</t>
+  </si>
+  <si>
+    <t>H. Baumg\"artel and F. Lled\'o</t>
   </si>
   <si>
     <t>W. Beer</t>
@@ -4589,7 +4589,7 @@
     <t>N. Brownlowe and I. Raeburn</t>
   </si>
   <si>
-    <t>F. M. Br"uckler</t>
+    <t>F. M. Br\"uckler</t>
   </si>
   <si>
     <t>A. V. Buchina and P. S. Popov</t>
@@ -4626,15 +4626,15 @@
     <t>D. R. Buske</t>
   </si>
   <si>
-    <t>M. Cabrera~Garc'ia and J. Mart'inez~Moreno and
-A. Rodr'iguez~Palacios</t>
-  </si>
-  <si>
-    <t>M. Cabrera~Garc'ia</t>
-  </si>
-  <si>
-    <t>M. Cabrera~Garc'ia  and A. El~Marrakchi and J. Mart'inez~Moreno and
-A. Rodr'iguez~Palacios</t>
+    <t>M. Cabrera~Garc\'\ia and J. Mart\'\inez~Moreno and
+A. Rodr\'\iguez~Palacios</t>
+  </si>
+  <si>
+    <t>M. Cabrera~Garc\'\ia</t>
+  </si>
+  <si>
+    <t>M. Cabrera~Garc\'\ia  and A. El~Marrakchi and J. Mart\'\inez~Moreno and
+A. Rodr\'\iguez~Palacios</t>
   </si>
   <si>
     <t>A. Candel</t>
@@ -4695,7 +4695,7 @@
     <t>M. A. Coco and M. C. Lammers</t>
   </si>
   <si>
-    <t>I. Colojoarva</t>
+    <t>I. Colojoar\va</t>
   </si>
   <si>
     <t>F. Combes and H. H. Zettl</t>
@@ -4740,13 +4740,13 @@
     <t>R. E. Curto and P. S. Muhly and D. P. Williams</t>
   </si>
   <si>
-    <t>M. Dvadvarlat</t>
-  </si>
-  <si>
-    <t>M. Dvadvarlat and G. Nagy and A. N'emethi and C. Pasnicu</t>
-  </si>
-  <si>
-    <t>M. Dvadvarlat and S. Eilers</t>
+    <t>M. D\vad\varlat</t>
+  </si>
+  <si>
+    <t>M. D\vad\varlat and G. Nagy and A. N\'emethi and C. Pasnicu</t>
+  </si>
+  <si>
+    <t>M. D\vad\varlat and S. Eilers</t>
   </si>
   <si>
     <t>B. Damir</t>
@@ -4821,16 +4821,16 @@
     <t>D. Drinen and N. Sieben</t>
   </si>
   <si>
-    <t>D. Dumitracscu</t>
-  </si>
-  <si>
-    <t>M. J. Dupr'e</t>
-  </si>
-  <si>
-    <t>M. J. Dupr'e and P. A. Fillmore</t>
-  </si>
-  <si>
-    <t>M. J. Dupr'e and R. M. Gillette</t>
+    <t>D. Dumitra\cscu</t>
+  </si>
+  <si>
+    <t>M. J. Dupr\'e</t>
+  </si>
+  <si>
+    <t>M. J. Dupr\'e and P. A. Fillmore</t>
+  </si>
+  <si>
+    <t>M. J. Dupr\'e and R. M. Gillette</t>
   </si>
   <si>
     <t>J. Dyer</t>
@@ -4890,7 +4890,7 @@
     <t>G. A. Elliott</t>
   </si>
   <si>
-    <t>G. A. Elliott and K. Sait^o and J. D. M. Wright</t>
+    <t>G. A. Elliott and K. Sait\^o and J. D. M. Wright</t>
   </si>
   <si>
     <t>G. A. Elliott and Qing Lin</t>
@@ -5004,7 +5004,7 @@
     <t>Debashish Goswami and Kalyan B. Sinha</t>
   </si>
   <si>
-    <t>J. M. Gracia-Bond'ia and J. C. V'arilly and H. Figueroa</t>
+    <t>J. M. Gracia-Bond\'\ia and J. C. V\'arilly and H. Figueroa</t>
   </si>
   <si>
     <t>P. Green</t>
@@ -5016,7 +5016,7 @@
     <t>M. J. Gruber</t>
   </si>
   <si>
-    <t>B. Guljavs</t>
+    <t>B. Gulja\vs</t>
   </si>
   <si>
     <t>Maozheng Guo and Bin Meng and Xiaohong Cao</t>
@@ -5034,10 +5034,10 @@
     <t>M. Hamana</t>
   </si>
   <si>
-    <t>M. Hamana and O. Takateru and K. Sait^o</t>
-  </si>
-  <si>
-    <t>M. Hamana and T. Okayasu and K. Sait^o</t>
+    <t>M. Hamana and O. Takateru and K. Sait\^o</t>
+  </si>
+  <si>
+    <t>M. Hamana and T. Okayasu and K. Sait\^o</t>
   </si>
   <si>
     <t>D. Handelman</t>
@@ -5118,10 +5118,10 @@
     <t>J. M. Isidro</t>
   </si>
   <si>
-    <t>V. I. Istrvactescu</t>
-  </si>
-  <si>
-    <t>A. I. Istrvactescu and V. I. Istrvactescu</t>
+    <t>V. I. Istr\va\ctescu</t>
+  </si>
+  <si>
+    <t>A. I. Istr\va\ctescu and V. I. Istr\va\ctescu</t>
   </si>
   <si>
     <t>S. Itoh</t>
@@ -5145,7 +5145,7 @@
     <t>G. Ji</t>
   </si>
   <si>
-    <t>M. Joicta</t>
+    <t>M. Joi\cta</t>
   </si>
   <si>
     <t>P. Jolissaint</t>
@@ -5400,13 +5400,13 @@
     <t>Yun-Gang Lu</t>
   </si>
   <si>
-    <t>W. L"uck and M. Rothenberg</t>
-  </si>
-  <si>
-    <t>W. L"uck</t>
-  </si>
-  <si>
-    <t>W. L"uck and Th. Schick</t>
+    <t>W. L\"uck and M. Rothenberg</t>
+  </si>
+  <si>
+    <t>W. L\"uck</t>
+  </si>
+  <si>
+    <t>W. L\"uck and Th. Schick</t>
   </si>
   <si>
     <t>F. Luef</t>
@@ -5442,7 +5442,7 @@
     <t>V. M. Manuilov</t>
   </si>
   <si>
-    <t>V. M. Manuilov and E. V. TroHitsky</t>
+    <t>V. M. Manuilov and E. V. Tro\H\itsky</t>
   </si>
   <si>
     <t>A. E. Marrero and P. S. Muhly</t>
@@ -5517,7 +5517,7 @@
     <t>P. Mitchener</t>
   </si>
   <si>
-    <t>L. Moln'ar</t>
+    <t>L. Moln\'ar</t>
   </si>
   <si>
     <t>C. C. Moore and C. Schochet</t>
@@ -5607,7 +5607,7 @@
     <t>M. Ozawa</t>
   </si>
   <si>
-    <t>M. Ozawa and K. Sait^o</t>
+    <t>M. Ozawa and K. Sait\^o</t>
   </si>
   <si>
     <t>J. A. Packer</t>
@@ -5748,7 +5748,7 @@
     <t>I. Raeburn and S. J. Thompson</t>
   </si>
   <si>
-    <t>R. Raji'c</t>
+    <t>R. Raji\'c</t>
   </si>
   <si>
     <t>O. Ramcke</t>
@@ -5787,10 +5787,10 @@
     <t>Zhong-Jin Ruan and Guangwu Xu</t>
   </si>
   <si>
-    <t>K. Sait^o</t>
-  </si>
-  <si>
-    <t>K. Sait^o and J. D. M. Wright</t>
+    <t>K. Sait\^o</t>
+  </si>
+  <si>
+    <t>K. Sait\^o and J. D. M. Wright</t>
   </si>
   <si>
     <t>H. Salehi</t>
@@ -5817,7 +5817,7 @@
     <t>C. Schochet</t>
   </si>
   <si>
-    <t>H. Schr"oder</t>
+    <t>H. Schr\"oder</t>
   </si>
   <si>
     <t>F. P. Schuller and P. Vogt</t>
@@ -5886,7 +5886,7 @@
     <t>B. Solel</t>
   </si>
   <si>
-    <t>Yu. P. Solovyov and E. V. TroHitsky</t>
+    <t>Yu. P. Solovyov and E. V. Tro\H\itsky</t>
   </si>
   <si>
     <t>R. Speicher</t>
@@ -5907,7 +5907,7 @@
     <t>R. G. Swan</t>
   </si>
   <si>
-    <t>W. Szym'anski</t>
+    <t>W. Szym\'anski</t>
   </si>
   <si>
     <t>A. O. Takahashi</t>
@@ -5943,7 +5943,7 @@
     <t>V. A. Trofimov</t>
   </si>
   <si>
-    <t>E. V. TroHitsky</t>
+    <t>E. V. Tro\H\itsky</t>
   </si>
   <si>
     <t>J. Trout</t>
@@ -6024,7 +6024,7 @@
     <t>S. L. Woronowicz</t>
   </si>
   <si>
-    <t>S. L. Woronowicz and K. Napi'orkowski</t>
+    <t>S. L. Woronowicz and K. Napi\'orkowski</t>
   </si>
   <si>
     <t>J. D. M. Wright</t>
@@ -9762,7 +9762,7 @@
     <t>605-632</t>
   </si>
   <si>
-    <t>803-818 /it Math. Notes  682000, 683-694</t>
+    <t>803-818 /\it Math. Notes  682000, 683-694</t>
   </si>
   <si>
     <t>197-222</t>
@@ -9822,7 +9822,7 @@
     <t>235-255</t>
   </si>
   <si>
-    <t>no. 4, 333-343 / it Soviet J. Contemp. Math. Anal.  251990,
+    <t>no. 4, 333-343 / \it Soviet J. Contemp. Math. Anal.  251990,
 no. 4, 20-31</t>
   </si>
   <si>
@@ -9940,11 +9940,11 @@
     <t>481</t>
   </si>
   <si>
-    <t>56-58 / it Moscow Univ. Math. Bull.  351980, no. 3,
+    <t>56-58 / \it Moscow Univ. Math. Bull.  351980, no. 3,
 59-65</t>
   </si>
   <si>
-    <t>36-38 / it Moscow Univ. Math. Bull.  371982, no. 4,
+    <t>36-38 / \it Moscow Univ. Math. Bull.  371982, no. 4,
 45-48</t>
   </si>
   <si>
@@ -10456,7 +10456,7 @@
     <t>404-465</t>
   </si>
   <si>
-    <t>103-114 / Summary in: it Chinese Ann. Math. Ser. A
+    <t>103-114 / Summary in: \it Chinese Ann. Math. Ser. A
  171996, 122</t>
   </si>
   <si>
@@ -10499,11 +10499,11 @@
     <t>207-218</t>
   </si>
   <si>
-    <t>74-76 / it Moscow Univ. Math. Bull.  421987, no. 4,
+    <t>74-76 / \it Moscow Univ. Math. Bull.  421987, no. 4,
 87-90</t>
   </si>
   <si>
-    <t>93-95 / it Moscow Univ. Math. Bull.  451990, no. 1,
+    <t>93-95 / \it Moscow Univ. Math. Bull.  451990, no. 1,
 53-54</t>
   </si>
   <si>
@@ -10870,26 +10870,26 @@
     <t>3-5</t>
   </si>
   <si>
-    <t>376-386 / it Math. USSR - Sb.  471984, 365-376</t>
-  </si>
-  <si>
-    <t>10-14 / it Amer. Math. Soc. Transl., Series 2  1361987,
+    <t>376-386 / \it Math. USSR - Sb.  471984, 365-376</t>
+  </si>
+  <si>
+    <t>10-14 / \it Amer. Math. Soc. Transl., Series 2  1361987,
 143-147</t>
   </si>
   <si>
-    <t>796-838 / it Math. USSR - Izv.  91975, 751-792</t>
+    <t>796-838 / \it Math. USSR - Izv.  91975, 751-792</t>
   </si>
   <si>
     <t>133-150</t>
   </si>
   <si>
-    <t>571-630 / it Math. USSR - Izv.  161981, no. 3</t>
+    <t>571-630 / \it Math. USSR - Izv.  161981, no. 3</t>
   </si>
   <si>
     <t>987-1000</t>
   </si>
   <si>
-    <t>3-31 / it J. Soviet Math.  371987, 1373-1396</t>
+    <t>3-31 / \it J. Soviet Math.  371987, 1373-1396</t>
   </si>
   <si>
     <t>147-201</t>
@@ -11009,11 +11009,11 @@
     <t>189-200</t>
   </si>
   <si>
-    <t>no.~3, 78-88 / it Sibirian Math. J.  321991, no.~3,
+    <t>no.~3, 78-88 / \it Sibirian Math. J.  321991, no.~3,
 416-424</t>
   </si>
   <si>
-    <t>no.~1, 124-134 / it Sibirian Math. J.  351994, no.~1,
+    <t>no.~1, 124-134 / \it Sibirian Math. J.  351994, no.~1,
 114-122</t>
   </si>
   <si>
@@ -11110,7 +11110,7 @@
     <t>231-252</t>
   </si>
   <si>
-    <t>387-396 / it Chin. Ann. Math., Ser. A  141993, 630.</t>
+    <t>387-396 / \it Chin. Ann. Math., Ser. A  141993, 630.</t>
   </si>
   <si>
     <t>555-575</t>
@@ -11119,7 +11119,7 @@
     <t>14-17</t>
   </si>
   <si>
-    <t>no. 4, 3-35 / it Russ. Acad. Sci. Izv., Math.  431994,
+    <t>no. 4, 3-35 / \it Russ. Acad. Sci. Izv., Math.  431994,
 no.~1, 1-29</t>
   </si>
   <si>
@@ -11201,40 +11201,40 @@
     <t>112-161</t>
   </si>
   <si>
-    <t>159-160 / it Russ. Math. Surv.  491994, no.~2,
+    <t>159-160 / \it Russ. Math. Surv.  491994, no.~2,
 166-167</t>
   </si>
   <si>
     <t>207-226</t>
   </si>
   <si>
-    <t>no.~2, 57-60 / it Funct. Anal. Appl.  281994, no.~2,
+    <t>no.~2, 57-60 / \it Funct. Anal. Appl.  281994, no.~2,
 120-122</t>
   </si>
   <si>
-    <t>83-86 / it Funct. Anal. Appl.  301996, 287-289</t>
+    <t>83-86 / \it Funct. Anal. Appl.  301996, 287-289</t>
   </si>
   <si>
     <t>no.~2, 161-169</t>
   </si>
   <si>
-    <t>865-870 / it Math. Notes  621998, 726-730</t>
-  </si>
-  <si>
-    <t>no.~6, 99-118 / it Math. Notes  621997, 726-730</t>
+    <t>865-870 / \it Math. Notes  621998, 726-730</t>
+  </si>
+  <si>
+    <t>no.~6, 99-118 / \it Math. Notes  621997, 726-730</t>
   </si>
   <si>
     <t>Itogi Nauki Tekh. Ser. Sovrem. Mat. Prilozh. Temat. Obz., v.~53, Vseross.
 Inst. Nauchn. i Tekhn. Inform. VINITI, Moscow, ed.: A. Ya. Khelemskii /
-it  J. Math. Sci.  982000, 137-201</t>
+\it  J. Math. Sci.  982000, 137-201</t>
   </si>
   <si>
     <t>Itogi Nauki Tekh. Ser. Sovrem. Mat. Prilozh. Temat. Obz., v.~53, Vseross.
 Inst. Nauchn. i Tekhn. Inform. VINITI, Moscow, ed.: A. Ya. Khelemskii /
-it  J. Math. Sci.  982000, 202-244</t>
-  </si>
-  <si>
-    <t>58-59 / it Moscow Univ. Math. Bull. 2000, ???</t>
+\it  J. Math. Sci.  982000, 202-244</t>
+  </si>
+  <si>
+    <t>58-59 / \it Moscow Univ. Math. Bull. 2000, ???</t>
   </si>
   <si>
     <t>175-189</t>
@@ -11291,29 +11291,29 @@
     <t>p. 2, 213-217</t>
   </si>
   <si>
-    <t>761-764 / it Soviet Math. Doklady  1811977, 767-771</t>
-  </si>
-  <si>
-    <t>1289-1291 / it Soviet Math. Doklady  191978, 512-515</t>
-  </si>
-  <si>
-    <t>67-79 / it Russ. Math. Surv.  341979, no. 6, 77-91</t>
+    <t>761-764 / \it Soviet Math. Doklady  1811977, 767-771</t>
+  </si>
+  <si>
+    <t>1289-1291 / \it Soviet Math. Doklady  191978, 512-515</t>
+  </si>
+  <si>
+    <t>67-79 / \it Russ. Math. Surv.  341979, no. 6, 77-91</t>
   </si>
   <si>
     <t>Springer-Verlag, Berlin, pp.262-274</t>
   </si>
   <si>
-    <t>831-859 / it Math. USSR - Izv.  151980, 87-112</t>
-  </si>
-  <si>
-    <t>51-56 / it Moscow Univ. Math. Bull.  381983, no. 6,
+    <t>831-859 / \it Math. USSR - Izv.  151980, 87-112</t>
+  </si>
+  <si>
+    <t>51-56 / \it Moscow Univ. Math. Bull.  381983, no. 6,
 59-64</t>
   </si>
   <si>
-    <t>161-176 / it Proc. Steklov Inst. Math.  1661986, 179-195</t>
-  </si>
-  <si>
-    <t>78-81 / it Moscow Univ. Math. Bull.  441989, no. 5,
+    <t>161-176 / \it Proc. Steklov Inst. Math.  1661986, 179-195</t>
+  </si>
+  <si>
+    <t>78-81 / \it Moscow Univ. Math. Bull.  441989, no. 5,
 73-75</t>
   </si>
   <si>
@@ -11476,7 +11476,7 @@
     <t>833-864</t>
   </si>
   <si>
-    <t>Birkh"auser, Basel-Boston, Ma., 223-242</t>
+    <t>Birkäuser, Basel-Boston, Ma., 223-242</t>
   </si>
   <si>
     <t>293-311</t>
@@ -11566,14 +11566,14 @@
     <t>271-297</t>
   </si>
   <si>
-    <t>14-18 / it Moscow Univ. Math. Bull.  531998, no.~6,
+    <t>14-18 / \it Moscow Univ. Math. Bull.  531998, no.~6,
 13-16 1999</t>
   </si>
   <si>
-    <t>55-58 / it Moscow Univ. Math. Bull.  552000, no.~4, 36-38</t>
-  </si>
-  <si>
-    <t>63-67 / it Moscow Univ. Math. Bull.  572002, no.~3, 43-46</t>
+    <t>55-58 / \it Moscow Univ. Math. Bull.  552000, no.~4, 36-38</t>
+  </si>
+  <si>
+    <t>63-67 / \it Moscow Univ. Math. Bull.  572002, no.~3, 43-46</t>
   </si>
   <si>
     <t>4271-4309</t>
@@ -11624,10 +11624,10 @@
     <t>95-118</t>
   </si>
   <si>
-    <t>Recent Advances in Operator Algebras, Or'eans, 1992, 159-186</t>
-  </si>
-  <si>
-    <t>no.~1, 132-186 / it St. Petersburg Math. J.  101999,
+    <t>Recent Advances in Operator Algebras, Or\'eans, 1992, 159-186</t>
+  </si>
+  <si>
+    <t>no.~1, 132-186 / \it St. Petersburg Math. J.  101999,
 no.~1, 103-146</t>
   </si>
   <si>
@@ -11661,7 +11661,7 @@
     <t>469-479</t>
   </si>
   <si>
-    <t>636-640 / it Math. Notes  651999, 532-536</t>
+    <t>636-640 / \it Math. Notes  651999, 532-536</t>
   </si>
   <si>
     <t>107-119</t>
@@ -11940,14 +11940,14 @@
     <t>29-33</t>
   </si>
   <si>
-    <t>no.~1, 40-45 / it Moscow Univ. Math. Bull.  582003,
+    <t>no.~1, 40-45 / \it Moscow Univ. Math. Bull.  582003,
 no.~1, 44-48</t>
   </si>
   <si>
     <t>531-543</t>
   </si>
   <si>
-    <t>87-89 / it Moscow Univ. Math. Bull.  401985, no. 1,
+    <t>87-89 / \it Moscow Univ. Math. Bull.  401985, no. 1,
 96-99</t>
   </si>
   <si>
@@ -11999,7 +11999,7 @@
     <t>11-38</t>
   </si>
   <si>
-    <t>no.~6, 914-923 / it Math.~Notes  712002, no.~5-6,
+    <t>no.~6, 914-923 / \it Math.~Notes  712002, no.~5-6,
 836-843</t>
   </si>
   <si>
@@ -12087,14 +12087,14 @@
     <t>207-246</t>
   </si>
   <si>
-    <t>60-64 / it Moscow Univ. Math. Bull.  411986, no.5,
+    <t>60-64 / \it Moscow Univ. Math. Bull.  411986, no.5,
 51-55</t>
   </si>
   <si>
     <t>pp.164-170</t>
   </si>
   <si>
-    <t>247-248 / it Russian Math. Surveys  421987, 303-304</t>
+    <t>247-248 / \it Russian Math. Surveys  421987, 303-304</t>
   </si>
   <si>
     <t>p. 296</t>
@@ -12103,44 +12103,44 @@
     <t>1059-1061</t>
   </si>
   <si>
-    <t>96-98 / it Moscow Univ. Math. Bull.  401985, no. 1,
+    <t>96-98 / \it Moscow Univ. Math. Bull.  401985, no. 1,
 111-115</t>
   </si>
   <si>
-    <t>227-228 / it Russian Math. Surv.  401985, no. 4,
+    <t>227-228 / \it Russian Math. Surv.  401985, no. 4,
 243-244</t>
   </si>
   <si>
-    <t>1059-1061 / it Russian Math. Surv.  311985, 558-560</t>
-  </si>
-  <si>
-    <t>58-64 / it Funct. Anal. Appl.  201986, 301-307</t>
-  </si>
-  <si>
-    <t>849-865 / it Math. USSR - Izv.  291986, 207-224</t>
+    <t>1059-1061 / \it Russian Math. Surv.  311985, 558-560</t>
+  </si>
+  <si>
+    <t>58-64 / \it Funct. Anal. Appl.  201986, 301-307</t>
+  </si>
+  <si>
+    <t>849-865 / \it Math. USSR - Izv.  291986, 207-224</t>
   </si>
   <si>
     <t>pp. 128-134</t>
   </si>
   <si>
-    <t>83-85 / it Moscow Univ. Math. Bull.  431988, no. 2,
+    <t>83-85 / \it Moscow Univ. Math. Bull.  431988, no. 2,
 57-60</t>
   </si>
   <si>
-    <t>213-214 / it Russian Math. Surv.  441989, 259-261</t>
+    <t>213-214 / \it Russian Math. Surv.  441989, 259-261</t>
   </si>
   <si>
     <t>193-206</t>
   </si>
   <si>
-    <t>178-182 / it Proc. Steklov Inst. Math.  1931993, no.~3,
+    <t>178-182 / \it Proc. Steklov Inst. Math.  1931993, no.~3,
 197-201</t>
   </si>
   <si>
-    <t>36-39 / it Moscow Univ. Math. Bull.  481993, no. 5, 34-37</t>
-  </si>
-  <si>
-    <t>88-92 / it Funct. Anal. Appl.  281994,
+    <t>36-39 / \it Moscow Univ. Math. Bull.  481993, no. 5, 34-37</t>
+  </si>
+  <si>
+    <t>88-92 / \it Funct. Anal. Appl.  281994,
 no.~3, 220-223.</t>
   </si>
   <si>
@@ -12152,10 +12152,10 @@
   <si>
     <t>Itogi Nauki Tekh. Ser. Sovrem. Mat. Prilozh. Temat. Obz., v.~53, Vseross.
 Inst. Nauchn. i Tekhn. Inform. VINITI, Moscow, ed.: A. Ya. Khelemskii /
-it  J. Math. Sci.  982000, 245-290</t>
-  </si>
-  <si>
-    <t>362-380 / it Proc. Steklov Inst. Math.  2251999,
+\it  J. Math. Sci.  982000, 245-290</t>
+  </si>
+  <si>
+    <t>362-380 / \it Proc. Steklov Inst. Math.  2251999,
 344-362</t>
   </si>
   <si>
@@ -12378,7 +12378,7 @@
     <t>300 pp.</t>
   </si>
   <si>
-    <t>Birkh"auser, Boston - Basel - Berlin</t>
+    <t>Birkäuser, Boston - Basel - Berlin</t>
   </si>
   <si>
     <t>World Sci. Publ., River Edge, NJ</t>
@@ -12411,10 +12411,10 @@
     <t>Kluwer Academic Publishers, Dordrecht</t>
   </si>
   <si>
-    <t>Birkh"auser, Boston, Ma.</t>
-  </si>
-  <si>
-    <t>Chapman &amp; Hall / CRC Press, Boca Raton, FL, USA</t>
+    <t>Birkäuser, Boston, Ma.</t>
+  </si>
+  <si>
+    <t>Chapman \&amp; Hall / CRC Press, Boca Raton, FL, USA</t>
   </si>
   <si>
     <t>InterEditions, Paris</t>
@@ -12435,7 +12435,7 @@
     <t>Longman, New York</t>
   </si>
   <si>
-    <t>Birkh"auser Verlag</t>
+    <t>Birkäuser Verlag</t>
   </si>
   <si>
     <t>Pitman, Boston - London - Melbourne</t>
@@ -12450,7 +12450,7 @@
     <t>Pitman, London</t>
   </si>
   <si>
-    <t>Birkh"auser-Verlag, Basel</t>
+    <t>Birkäuser-Verlag, Basel</t>
   </si>
   <si>
     <t>Springer-Verlag, Berlin-Heidelberg-New York</t>
@@ -12474,20 +12474,20 @@
     <t>World Sci. Publishing, River Edge, NJ</t>
   </si>
   <si>
-    <t>Longman Scientific &amp; Technical, New York</t>
+    <t>Longman Scientific \&amp; Technical, New York</t>
   </si>
   <si>
     <t>D. Reidel Publishing Company, Dordrecht - Boston -
 Lancaster - Tokyo</t>
   </si>
   <si>
-    <t>Birkh"auser, Boston, Mass.</t>
+    <t>Birkäuser, Boston, Mass.</t>
   </si>
   <si>
     <t>World Scientific Publ.~Co., Inc., River Edge, NJ</t>
   </si>
   <si>
-    <t>Severo-Osetinskiui Gosudarstvennyui Universitet imeni
+    <t>Severo-Osetinski\u\i Gosudarstvenny\u\i Universitet imeni
 K. L. Khetagurova, Vladikavkaz</t>
   </si>
   <si>
@@ -12497,11 +12497,11 @@
     <t>Kluwer Academic Publ., Dordrecht, Netherlands</t>
   </si>
   <si>
-    <t>Polish Academy of Sciences, Inst. of Mathematics, it
+    <t>Polish Academy of Sciences, Inst. of Mathematics, \it
 Banach Center Publ.  38</t>
   </si>
   <si>
-    <t>Almquist &amp; Wiksell, Stockholm</t>
+    <t>Almquist \&amp; Wiksell, Stockholm</t>
   </si>
   <si>
     <t>Academic Press, New York</t>
@@ -12516,7 +12516,7 @@
     <t>Ferdowsi University of Mashhad, Mashhad, Iran</t>
   </si>
   <si>
-    <t>it Electronic Notes in Computer Science  24</t>
+    <t>\it Electronic Notes in Computer Science  24</t>
   </si>
   <si>
     <t xml:space="preserve">Heyn-Verlag, Klagenfurt </t>
@@ -12535,11 +12535,11 @@
   </si>
   <si>
     <t>Mappings of Operator Algebras, ed.: H. Araki, R. V. Kadison,
-Birkh"auser-Verlag, Boston- Basel - Berlin</t>
+Birkäuser-Verlag, Boston- Basel - Berlin</t>
   </si>
   <si>
     <t xml:space="preserve">Mappings in Operator Algebras, ed.: H. Araki, R. V. Kadison,
-Birkh"auser-Verlag, Boston - Basel - Berlin </t>
+Birkäuser-Verlag, Boston - Basel - Berlin </t>
   </si>
   <si>
     <t>North-Holland Publishing Comp., Amsterdam</t>
@@ -12548,7 +12548,7 @@
     <t>Longman, Harlow</t>
   </si>
   <si>
-    <t>Longman Scientific &amp; Technical, Harlow, England</t>
+    <t>Longman Scientific \&amp; Technical, Harlow, England</t>
   </si>
   <si>
     <t>Springer, Berlin - Heidelberg</t>
@@ -12561,7 +12561,7 @@
   </si>
   <si>
     <t>Faktorial, Moscow, ISBN 5-88688-009-7, 352 p.~/ revised:
-it Transl. Math. Monographs  192, ISBN 0-8218-1399-4, Amer. Math.
+\it Transl. Math. Monographs  192, ISBN 0-8218-1399-4, Amer. Math.
 Soc., Providence, R.I., 2001</t>
   </si>
   <si>
@@ -12577,7 +12577,7 @@
     <t>Longman Scientific, Harlow</t>
   </si>
   <si>
-    <t>Chapman &amp; Hall / CRC, Boca Raton, FL, USA</t>
+    <t>Chapman \&amp; Hall / CRC, Boca Raton, FL, USA</t>
   </si>
   <si>
     <t>Oxford University Press, Oxford</t>
@@ -12592,7 +12592,7 @@
     <t>Springer-Verlag</t>
   </si>
   <si>
-    <t>R. Curto and P. E. T. Jorgensen</t>
+    <t>R. Curto and P. E. T. J\orgensen</t>
   </si>
   <si>
     <t>R. E. Curto and R. G. Douglas and J. D. Pincus and
@@ -12621,20 +12621,20 @@
     <t>H. G. Feichtinger and T. Strohmer</t>
   </si>
   <si>
-    <t>D. Butkovi'c et al.</t>
+    <t>D. Butkovi\'c et al.</t>
   </si>
   <si>
     <t>A. Gheondea</t>
   </si>
   <si>
-    <t>H. Araki and H. Choda and Y. Nakagami and K. Sait^o</t>
-  </si>
-  <si>
-    <t>H. Araki and C. C. Moore and cS. Stratila and D. Voiculescu</t>
+    <t>H. Araki and H. Choda and Y. Nakagami and K. Sait\^o</t>
+  </si>
+  <si>
+    <t>H. Araki and C. C. Moore and \cS. Stratila and D. Voiculescu</t>
   </si>
   <si>
     <t>W. B. Arveson and A. S. Mishchenko and M. Putinar and
-M. A. Rieffel and cS. Struatilua</t>
+M. A. Rieffel and \cS. Str\uatil\ua</t>
   </si>
   <si>
     <t>S. C. Ferry and A. Ranicki and J. Rosenberg</t>
@@ -12662,7 +12662,7 @@
     <t>D.-V. Voiculescu</t>
   </si>
   <si>
-    <t>Birkh"auser, Basel-Boston, MA</t>
+    <t>Birkäuser, Basel-Boston, MA</t>
   </si>
   <si>
     <t>V. Mandrekar and H. Salehi</t>
@@ -12740,7 +12740,7 @@
 1993</t>
   </si>
   <si>
-    <t>Operator-Theoretical Methods Timicsoara, 1998</t>
+    <t>Operator-Theoretical Methods Timi\csoara, 1998</t>
   </si>
   <si>
     <t>Topics in Operator Theory, Operator Algebras and
@@ -12765,7 +12765,7 @@
   </si>
   <si>
     <t>Topics in Modern Operator Theory, 5th International
-Conference on Operator Theory, Timicsoara and Herculane Romania,
+Conference on Operator Theory, Timi\csoara and Herculane Romania,
 June 2-12, 1980</t>
   </si>
   <si>
@@ -12820,7 +12820,7 @@
   </si>
   <si>
     <t>Advances in Quantum Dynamics South Hadley, MA, 2002,
-Amer. Math. Soc., Providence, R.I., it Contemp. Math.  335</t>
+Amer. Math. Soc., Providence, R.I., \it Contemp. Math.  335</t>
   </si>
   <si>
     <t>Generalized Homologies and Homotopies. Collection of works
@@ -12838,7 +12838,7 @@
 Febr. 7 - May 15, 1994</t>
   </si>
   <si>
-    <t>Probability and Statistics - The Harald Cram'er Volume</t>
+    <t>Probability and Statistics - The Harald Cram\'er Volume</t>
   </si>
   <si>
     <t>Multivariate Analysis, Proc. Int. Symp., Dayton, Ohio,
@@ -12863,7 +12863,7 @@
     <t>Contributions to General Algebra, 12 Vienna, 1999</t>
   </si>
   <si>
-    <t>Contributions to General Algebra, v.~13 Velk'e Karlovice, 1999 /
+    <t>Contributions to General Algebra, v.~13 Velk\'e Karlovice, 1999 /
 Dresden, 2000</t>
   </si>
   <si>
@@ -12890,7 +12890,7 @@
   </si>
   <si>
     <t>C*-Algebras: Proceedings of the SFB-Workshop on C*-Algebras,
-M"unster, Germany, March 8-12, 1999</t>
+M\"unster, Germany, March 8-12, 1999</t>
   </si>
   <si>
     <t>Problems in Mathematical Analysis and its Applications</t>
@@ -12904,7 +12904,7 @@
   </si>
   <si>
     <t>Advances in Quantum Dynamics, Amer. Math. Soc., Providence,
-R.I., it Contemp. Math.  335</t>
+R.I., \it Contemp. Math.  335</t>
   </si>
   <si>
     <t>Quantum Probability and Infinite Dimensional Analysis
@@ -12918,7 +12918,7 @@
 Equations</t>
   </si>
   <si>
-    <t>Bakinskaya mezhdunarodnaya topologi^ceskaya konferenciya,
+    <t>Bakinskaya mezhdunarodnaya topologi\^ceskaya konferenciya,
 proceedings, part 2</t>
   </si>
   <si>
@@ -13633,7 +13633,7 @@
     <t xml:space="preserve"> 72</t>
   </si>
   <si>
-    <t>Special Volume: it Functional Analysis and its Applications,
+    <t>Special Volume: \it Functional Analysis and its Applications,
 Part II</t>
   </si>
   <si>
@@ -13814,7 +13814,7 @@
     <t>Int. Math. J.</t>
   </si>
   <si>
-    <t>Math. Japo-nica</t>
+    <t>Math. Japo\-nica</t>
   </si>
   <si>
     <t>Math. Ann.</t>
@@ -13872,10 +13872,10 @@
     <t>Amer. J. Math.</t>
   </si>
   <si>
-    <t>C. R. Acad. Sci. Paris, s'er. 1</t>
-  </si>
-  <si>
-    <t>Ann. Sci. 'Ec. Norm. Sup., 4e s'er.</t>
+    <t>C. R. Acad. Sci. Paris, s\'er. 1</t>
+  </si>
+  <si>
+    <t>Ann. Sci. \'Ec. Norm. Sup., 4e s\'er.</t>
   </si>
   <si>
     <t>Contemp. Math.</t>
@@ -13917,7 +13917,7 @@
     <t>Math. Nachr.</t>
   </si>
   <si>
-    <t>Fields Institute Communications, rm A.M.S.</t>
+    <t>Fields Institute Communications, \rm A.M.S.</t>
   </si>
   <si>
     <t>Int. J. Math.</t>
@@ -13950,7 +13950,7 @@
     <t>Proc. London Math. Soc.</t>
   </si>
   <si>
-    <t>Ast'erisque</t>
+    <t>Ast\'erisque</t>
   </si>
   <si>
     <t>J. reine angew. Math.</t>
@@ -13977,7 +13977,7 @@
     <t>Far East J. Math. Sci.</t>
   </si>
   <si>
-    <t>Bull. Soc. Math. Belg. S`er. B</t>
+    <t>Bull. Soc. Math. Belg. S\`er. B</t>
   </si>
   <si>
     <t>Complex Variables Theory Appl.</t>
@@ -13989,7 +13989,7 @@
     <t>J. Reine Angew. Math.</t>
   </si>
   <si>
-    <t>Glasnik Matemativcki</t>
+    <t>Glasnik Matemati\vcki</t>
   </si>
   <si>
     <t>Acta Appl. Math.</t>
@@ -14025,8 +14025,8 @@
     <t>Bull. Sci. Math.</t>
   </si>
   <si>
-    <t>rm in: Nielsen Theory and Reidemeister Torsion rm Warsaw,
-1996, Banach Center Publications, rm Polish Academy of Sciences, Warsaw</t>
+    <t>\rm in: Nielsen Theory and Reidemeister Torsion \rm Warsaw,
+1996, Banach Center Publications, \rm Polish Academy of Sciences, Warsaw</t>
   </si>
   <si>
     <t>New York J. Math.</t>
@@ -14122,7 +14122,7 @@
     <t>Proc. London Math. Soc. 3</t>
   </si>
   <si>
-    <t xml:space="preserve"> T^ohoku Math. J.</t>
+    <t xml:space="preserve"> T\^ohoku Math. J.</t>
   </si>
   <si>
     <t>Integral Equations Oper. Theory</t>
@@ -14137,7 +14137,7 @@
     <t>Tongji Daxue Xuebao Ziran Kexue</t>
   </si>
   <si>
-    <t>C. R. Acad. Sci. Paris, S'er. I. Math.</t>
+    <t>C. R. Acad. Sci. Paris, S\'er. I. Math.</t>
   </si>
   <si>
     <t>Anal. Global Anal. Geom.</t>
@@ -14185,7 +14185,7 @@
     <t>J. Math. Soc. Japan</t>
   </si>
   <si>
-    <t>T^ohoku Math. J.</t>
+    <t>T\^ohoku Math. J.</t>
   </si>
   <si>
     <t>Japan. J. Math.</t>
@@ -14212,7 +14212,7 @@
     <t>J. Korean Math. Soc.</t>
   </si>
   <si>
-    <t>Journal of Institute of Mathematics &amp; Computer Sciences</t>
+    <t>Journal of Institute of Mathematics \&amp; Computer Sciences</t>
   </si>
   <si>
     <t>Bull. Kyushu Inst. Technol. Math. Natur. Sci.</t>
@@ -14227,7 +14227,7 @@
     <t>Integr. Equat. Oper. Th.</t>
   </si>
   <si>
-    <t>An. Univ. Bucurecsti Mat.</t>
+    <t>An. Univ. Bucure\csti Mat.</t>
   </si>
   <si>
     <t>Math. Rep. Bucur.</t>
@@ -14284,7 +14284,7 @@
     <t>Erevan. Gos. Univ. Uchen. Zap., Estestv. Nauki</t>
   </si>
   <si>
-    <t>Akad. Nauk AzerbaHidshan. SSR Dokl.</t>
+    <t>Akad. Nauk Azerba\H\idshan. SSR Dokl.</t>
   </si>
   <si>
     <t>Mat. Sbornik</t>
@@ -14375,7 +14375,7 @@
     <t>Jahresber. Deutsch. Math.-Verein.</t>
   </si>
   <si>
-    <t>it Proc. Edinburgh Math. Soc.</t>
+    <t>\it Proc. Edinburgh Math. Soc.</t>
   </si>
   <si>
     <t>J. Math. Anal. Appl.</t>
@@ -14465,7 +14465,7 @@
     <t>Taiwanese J. Math.</t>
   </si>
   <si>
-    <t>S=urikaisekikenky=usho K=oky=uroku</t>
+    <t>S\=urikaisekikenky\=usho K\=oky\=uroku</t>
   </si>
   <si>
     <t>Far East J. Math. Sci. FJMS</t>
@@ -14504,28 +14504,28 @@
     <t>J. Austral. Math. Soc., Ser. A</t>
   </si>
   <si>
-    <t>C. R. Acad. Sci. Paris S'er. I Math.</t>
-  </si>
-  <si>
-    <t>Seminaire Bourbaki, 48`eme ann'ee 1995-1996</t>
+    <t>C. R. Acad. Sci. Paris S\'er. I Math.</t>
+  </si>
+  <si>
+    <t>Seminaire Bourbaki, 48\`eme ann\'ee 1995-1996</t>
   </si>
   <si>
     <t>Algebra i Analiz</t>
   </si>
   <si>
-    <t>Ann. scient. 'Ec. Norm. Sup. $4^e$ s'erie</t>
-  </si>
-  <si>
-    <t>Bull. Soc. Math. Belg., S'er. B</t>
+    <t>Ann. scient. \'Ec. Norm. Sup. $4^e$ s\'erie</t>
+  </si>
+  <si>
+    <t>Bull. Soc. Math. Belg., S\'er. B</t>
   </si>
   <si>
     <t>J. Func. Anal.</t>
   </si>
   <si>
-    <t>S.L.O.H.A., West University of Timicsoara</t>
-  </si>
-  <si>
-    <t>Ann. Univ. Sci. Budapest. E"otv"os Sect. Math.</t>
+    <t>S.L.O.H.A., West University of Timi\csoara</t>
+  </si>
+  <si>
+    <t>Ann. Univ. Sci. Budapest. E\"otv\"os Sect. Math.</t>
   </si>
   <si>
     <t>Zeitschr. Anal. Anwendungen</t>
@@ -14556,7 +14556,7 @@
     <t>Publ. Math. I.H.E.S.</t>
   </si>
   <si>
-    <t xml:space="preserve">T^ohoku Math. J. </t>
+    <t xml:space="preserve">T\^ohoku Math. J. </t>
   </si>
   <si>
     <t>Proc. Symp. Pure Math. Amer. Math. Soc., part 2</t>
@@ -14598,7 +14598,7 @@
     <t>Vestnik Mosk. Univ. Ser. I Mat.-Mekh.</t>
   </si>
   <si>
-    <t>S'eminaire Dubreil-Pisot: alg`ebre et th'eorie des
+    <t>S\'eminaire Dubreil-Pisot: alg\`ebre et th\'eorie des
 nombres</t>
   </si>
   <si>
@@ -14620,7 +14620,7 @@
     <t>Michigan Math. J.</t>
   </si>
   <si>
-    <t>T^ohoku Math. Journal</t>
+    <t>T\^ohoku Math. Journal</t>
   </si>
   <si>
     <t>Kodai Math. Sem. Reports</t>
@@ -14638,7 +14638,7 @@
     <t>Illinois J. Math.</t>
   </si>
   <si>
-    <t>Ann. Inst. Henri Poincar'e</t>
+    <t>Ann. Inst. Henri Poincar\'e</t>
   </si>
   <si>
     <t>Proc. Lond. Math. Soc., III. Ser.</t>
@@ -14686,7 +14686,7 @@
     <t>IIAS Publications, Kyoto</t>
   </si>
   <si>
-    <t>preprint, Rome, to appear in it Lecture Notes of the Volterra
+    <t>preprint, Rome, to appear in \it Lecture Notes of the Volterra
 Internat. School of the same title, held in Trento, Italy</t>
   </si>
   <si>
@@ -14706,17 +14706,17 @@
   </si>
   <si>
     <t>preprint, Univ. of Zagreb, Croatia, submitted to
-it Proc. Royal Irish Acad. Ser. Math.</t>
+\it Proc. Royal Irish Acad. Ser. Math.</t>
   </si>
   <si>
     <t>preprint, Univ.~of Zagreb, Zagreb, Croatia</t>
   </si>
   <si>
-    <t>preprint, Zagreb, Croatia, submitted to it
+    <t>preprint, Zagreb, Croatia, submitted to \it
 Linear Algebra Appl.</t>
   </si>
   <si>
-    <t>preprint, to appear in it J. Operator Theory</t>
+    <t>preprint, to appear in \it J. Operator Theory</t>
   </si>
   <si>
     <t>preprint, University of Zagreb, Zagreb, Croatia</t>
@@ -14744,7 +14744,7 @@
   </si>
   <si>
     <t>preprint math.OA/9909041 at www.arxiv.org / to appear in
-it Pacific J. Math.</t>
+\it Pacific J. Math.</t>
   </si>
   <si>
     <t>preprint math.OA/0309046 at www.arxiv.org</t>
@@ -14767,14 +14767,14 @@
   <si>
     <t>in: Functional Analysis VII, Proc. Postgraduate School
 and Conf., Inter-University Centre, Dubrovnik, Croatia, 17-26 Sept., 2001,
-eds.: D.~Baki'c, P.~Pandvzi'c, G.~Peskir</t>
-  </si>
-  <si>
-    <t>preprint, Univ. Zagreb, Croatia / to appear in it
-Glasnik Matemativcki</t>
-  </si>
-  <si>
-    <t>ETH-preprint, ETH Z"urich, Switzerland</t>
+eds.: D.~Baki\'c, P.~Pand\vzi\'c, G.~Peskir</t>
+  </si>
+  <si>
+    <t>preprint, Univ. Zagreb, Croatia / to appear in \it
+Glasnik Matemati\vcki</t>
+  </si>
+  <si>
+    <t>ETH-preprint, ETH Z\"urich, Switzerland</t>
   </si>
   <si>
     <t>preprint, Univ. of Toronto, Toronto, Canada</t>
@@ -14807,35 +14807,35 @@
     <t>preprint, http://hilbert.dartmouth.edu/~dumitras/k/preprints.html</t>
   </si>
   <si>
-    <t>it Notices Amer. Math. Soc.  17, p. 788,
+    <t>\it Notices Amer. Math. Soc.  17, p. 788,
 Abstract 677-47-5</t>
   </si>
   <si>
-    <t>preprint, Texas A&amp;M Univ., College Station, TX, USA</t>
+    <t>preprint, Texas A\&amp;M Univ., College Station, TX, USA</t>
   </si>
   <si>
     <t>preprint math.OA/0311247 at www.arxi.org</t>
   </si>
   <si>
     <t>preprint math.OA/0205322 at www.arxiv.org, 152 pp.,
-to appear in it Mem. Amer. Math. Soc., 2005</t>
+to appear in \it Mem. Amer. Math. Soc., 2005</t>
   </si>
   <si>
     <t>preprint</t>
   </si>
   <si>
-    <t>preprint 2000, to appear in it Duke Math.~J.</t>
+    <t>preprint 2000, to appear in \it Duke Math.~J.</t>
   </si>
   <si>
     <t>preprint math.OA/0311502 at www.arxiv.org /
-to appear in it J. Reine Angew. Math.</t>
+to appear in \it J. Reine Angew. Math.</t>
   </si>
   <si>
     <t>preprint math.OA/0501030 at www.arxiv.org</t>
   </si>
   <si>
     <t>preprint, Universidade Federal de Santa Catarina,
-Florian'opolis, SC, Brasil,
+Florian\'opolis, SC, Brasil,
 1999 / preprint math.OA/9904013 at www.arxiv.org</t>
   </si>
   <si>
@@ -14845,11 +14845,11 @@
     <t>preprint math.OA/0409267 at www.arxiv.org</t>
   </si>
   <si>
-    <t>preprint, Universit`a di Roma ''Tor Vergata'', Rome,
+    <t>preprint, Universit\`a di Roma ''Tor Vergata'', Rome,
 Italy</t>
   </si>
   <si>
-    <t>preprint, Institut de Math'e matiques de Jussieu,
+    <t>preprint, Institut de Math\'e matiques de Jussieu,
 Paris, France</t>
   </si>
   <si>
@@ -14864,13 +14864,13 @@
   </si>
   <si>
     <t>preprint, LMAM, School of Math. Science, Peking
-University, submitted to it Methods Appl. Anal.</t>
+University, submitted to \it Methods Appl. Anal.</t>
   </si>
   <si>
     <t>preprint, Univ. of Cincinnati, Cincinnati, USA</t>
   </si>
   <si>
-    <t>preprint 1988, Orl'eans, France</t>
+    <t>preprint 1988, Orl\'eans, France</t>
   </si>
   <si>
     <t>preprint UMR no.~281, Paris, France</t>
@@ -14882,13 +14882,13 @@
     <t>preprint math.OA/0411209 at www.arxiv.org</t>
   </si>
   <si>
-    <t>Wissenschaftliche Arbeit zur Pr"Ufung f"ur das Lehramt
-M.~Wolff, Eberhard-Karls-Universit"at T"ubingen, Math.~Fakult"at,
-T"ubingen, Germany</t>
+    <t>Wissenschaftliche Arbeit zur Pr\"Ufung f\"ur das Lehramt
+M.~Wolff, Eberhard-Karls-Universit\"at T\"ubingen, Math.~Fakult\"at,
+T\"ubingen, Germany</t>
   </si>
   <si>
     <t>preprint, Azad University of Mashhad and Ferdowsi
-University, Mashhad, Iran, submitted to it Indian J. Pure Applied Math.</t>
+University, Mashhad, Iran, submitted to \it Indian J. Pure Applied Math.</t>
   </si>
   <si>
     <t>preprint, Azad University of Mashhad and Ferdowsi
@@ -14914,14 +14914,14 @@
   </si>
   <si>
     <t>preprint math.OA/0301044 at www.arxiv.org, to appear in
-it J.~Operator Theory</t>
+\it J.~Operator Theory</t>
   </si>
   <si>
     <t>preprint, Samarkand State University, Uzbekistan / The 1st Turkish
 Int. Conf. on Topol. and its Appl., August 2-5, 2000, Istanbul, Turkey</t>
   </si>
   <si>
-    <t>preprint, Texas A&amp;M Univ., College Station, TX, USA;
+    <t>preprint, Texas A\&amp;M Univ., College Station, TX, USA;
 work in progress</t>
   </si>
   <si>
@@ -14951,15 +14951,15 @@
   </si>
   <si>
     <t>talk at the 20th Internat. Conf. on Operator Theory,
-West University Timicsoara, Romania, June 30 - July 5, 2004</t>
+West University Timi\csoara, Romania, June 30 - July 5, 2004</t>
   </si>
   <si>
     <t>preprint, Univ. Teacher Education and Azad Islamic Univ.,
-Tehran, Iran, submitted to it Bull. Belgian Math. Soc. Simon Stevin</t>
+Tehran, Iran, submitted to \it Bull. Belgian Math. Soc. Simon Stevin</t>
   </si>
   <si>
     <t>preprint, Univ. Teacher Education and Azad Islamic Univ.,
-Tehran, Iran, submitted to it Int. J. Applied Math.</t>
+Tehran, Iran, submitted to \it Int. J. Applied Math.</t>
   </si>
   <si>
     <t>preprint math.OA/0411379 at www.arxiv.org</t>
@@ -14969,7 +14969,7 @@
   </si>
   <si>
     <t>preprint math.OA/0112049 at www.arxiv.org, to appear in
-it Ergodic Theory Dyn. Systems 2003</t>
+\it Ergodic Theory Dyn. Systems 2003</t>
   </si>
   <si>
     <t>preprint, funct-an@babbage.sissa.it, 9704006</t>
@@ -14991,12 +14991,12 @@
   </si>
   <si>
     <t>Verhandlungen der Deutschen Physikalischen Gesellschaft,
-Heft 4/1994, Bericht "uber die 58. Physikerjahrestagung der Fachgremien,
+Heft 4/1994, Bericht \"uber die 58. Physikerjahrestagung der Fachgremien,
 Kurzfassung des Vortrages MP 3A.12, p. 556</t>
   </si>
   <si>
     <t>preprint math-ph/9807030, xxx.lanl.gov /
-http://remote.science.uva.nl/~$,$npl/ck.html</t>
+http://remote.science.uva.nl/\~$\,$npl/ck.html</t>
   </si>
   <si>
     <t>preprint math-ph/0008036, www.arxiv.org</t>
@@ -15018,28 +15018,28 @@
     <t>preprint math.DG/0406020 at www.arxiv.org</t>
   </si>
   <si>
-    <t>preprint, Univ. de Franche Comt'e, CNRS, UMR 6623,
-Besanccon, France</t>
-  </si>
-  <si>
-    <t>preprint, Rome, submitted to it Infinite Dimensional
+    <t>preprint, Univ. de Franche Comt\'e, CNRS, UMR 6623,
+Besan\ccon, France</t>
+  </si>
+  <si>
+    <t>preprint, Rome, submitted to \it Infinite Dimensional
 Analysis, Quantum Probability and Related Topics</t>
   </si>
   <si>
-    <t>preprint MPI 96-98, Max-Planck-Institut f"ur
+    <t>preprint MPI 96-98, Max-Planck-Institut f\"ur
 Mathematik, Bonn, Fed. Rep. Germany</t>
   </si>
   <si>
-    <t>Volterra preprint no.~114, Universit`a di Roma
-''Tor Vergata'', Italy / submitted to it Ann. I.H.P.~Prob. Stat.</t>
-  </si>
-  <si>
-    <t>Volterra preprint, Universit`a di Roma
+    <t>Volterra preprint no.~114, Universit\`a di Roma
+''Tor Vergata'', Italy / submitted to \it Ann. I.H.P.~Prob. Stat.</t>
+  </si>
+  <si>
+    <t>Volterra preprint, Universit\`a di Roma
 ''Tor Vergata'', Italy</t>
   </si>
   <si>
-    <t>preprint, Universit`a di Roma ''Tor Vergata'',
-Italy / to appear in it Math. Zeitschr.</t>
+    <t>preprint, Universit\`a di Roma ''Tor Vergata'',
+Italy / to appear in \it Math. Zeitschr.</t>
   </si>
   <si>
     <t>Workshop on Time-frequency Analysis and Applications,
@@ -15052,14 +15052,14 @@
 Sciences, org.: J.~Packer, Qiyu Sun, Wai Shing Tang</t>
   </si>
   <si>
-    <t>preprint, Universit"at Wien, Austria</t>
+    <t>preprint, Universit\"at Wien, Austria</t>
   </si>
   <si>
     <t>Inst.~Math., Academica Sinica, Beijing, P.R.~China</t>
   </si>
   <si>
-    <t>Diplomarbeit, Eberhard-Karls-Universit"at T"ubingen,
-F.R.G., M"arz</t>
+    <t>Diplomarbeit, Eberhard-Karls-Universit\"at T\"ubingen,
+F.R.G., M\"arz</t>
   </si>
   <si>
     <t>preprint, University of Ljubljana, Ljubljana, Slovenia</t>
@@ -15076,15 +15076,15 @@
   </si>
   <si>
     <t>preprint, LMAM, School of Math. Science, Peking
-University, P.R. China, accepted by it Proc. Amer. Math. Soc.</t>
+University, P.R. China, accepted by \it Proc. Amer. Math. Soc.</t>
   </si>
   <si>
     <t>preprint, LMAM, School of Math. Science, Peking
-University, P.R. China, accepted by it Appl. Math. Mech.</t>
+University, P.R. China, accepted by \it Appl. Math. Mech.</t>
   </si>
   <si>
     <t>preprint, LMAM, School of Math. Science, Peking
-University, P.R. China, accepted to it J. Math. Anal. Appl.</t>
+University, P.R. China, accepted to \it J. Math. Anal. Appl.</t>
   </si>
   <si>
     <t>preprint math.OA/0310037 at www.arxiv.org</t>
@@ -15094,7 +15094,7 @@
 Indianapolis</t>
   </si>
   <si>
-    <t>preprint, www.math.jussieu.fr/$tilde,$mitch/research.html</t>
+    <t>preprint, www.math.jussieu.fr/$\tilde\,$mitch/research.html</t>
   </si>
   <si>
     <t>preprint math.OA/0212368 at www.arxiv.org / MPS: Pure
@@ -15113,7 +15113,7 @@
     <t>preprint math.OA/0308088 at www.arxiv.org</t>
   </si>
   <si>
-    <t>preprint, Universit`a degli Studi del Molise, Dipart. S.E.G.
+    <t>preprint, Universit\`a degli Studi del Molise, Dipart. S.E.G.
 e S., Campobasso, Italy / Techn. Univ. Cottbus, Cottbus, Germany</t>
   </si>
   <si>
@@ -15126,7 +15126,7 @@
     <t>preprint math.OA/0410607 at www.arxiv.org</t>
   </si>
   <si>
-    <t>preprint / to appear in it J. Funct. Anal.</t>
+    <t>preprint / to appear in \it J. Funct. Anal.</t>
   </si>
   <si>
     <t>preprint math.OA/0201189 at www.arxiv.org</t>
@@ -15165,27 +15165,27 @@
   </si>
   <si>
     <t>preprint math.OA/0212242 at www.arxiv.org, to appear
-in it Proc. OAMP Conf., Constanta, 2001</t>
+in \it Proc. OAMP Conf., Constanta, 2001</t>
   </si>
   <si>
     <t>preprint math.OA/0003116 at www.arxiv.org / preprint 1052000,
-SFB 478 - Geometrische Strukturen in der Mathematik, Univ.~M"unster, Germany</t>
+SFB 478 - Geometrische Strukturen in der Mathematik, Univ.~M\"unster, Germany</t>
   </si>
   <si>
     <t>preprint, Univ. of West Alabama, Livingston, USA</t>
   </si>
   <si>
-    <t>preprint, Texas A&amp;M Univ., Texas, U.S.A.</t>
+    <t>preprint, Texas A\&amp;M Univ., Texas, U.S.A.</t>
   </si>
   <si>
     <t>preprint, Univ. de Paris VI, France</t>
   </si>
   <si>
-    <t>S.L.O.H.A., West University of Timicsoara, to appear</t>
+    <t>S.L.O.H.A., West University of Timi\csoara, to appear</t>
   </si>
   <si>
     <t>preprint, Dept. Math., University of the West
-Timicsoara, Timicsoara, Romania</t>
+Timi\csoara, Timi\csoara, Romania</t>
   </si>
   <si>
     <t>preprint math.OA/0205322 at www.arxiv.org</t>
@@ -15203,36 +15203,36 @@
   </si>
   <si>
     <t>preprint MAPMO 98-22, series Mathematiques et
-Applications, Physique Mathematique d'Orl'eans, Universit'e d'Orl'eans-CNRS,
+Applications, Physique Mathematique d'Orl\'eans, Universit\'e d'Orl\'eans-CNRS,
 UMR 6628, France</t>
   </si>
   <si>
     <t>Talk given at AMS Special Session</t>
   </si>
   <si>
-    <t>to appear in the Proc. 16th OT Conf., Timicsoara,
+    <t>to appear in the Proc. 16th OT Conf., Timi\csoara,
 Romania, July 1997</t>
   </si>
   <si>
     <t>preprint, Univ. of Illinois at Urbana-Champaign, USA, 2002,
-accepted by it Canad. J. Math.</t>
-  </si>
-  <si>
-    <t>preprint, Eberhard-Karls-Universit"at T"ubingen,
-Mathematische Fakult"at, T"ubingen, F.R.G.</t>
+accepted by \it Canad. J. Math.</t>
+  </si>
+  <si>
+    <t>preprint, Eberhard-Karls-Universit\"at T\"ubingen,
+Mathematische Fakult\"at, T\"ubingen, F.R.G.</t>
   </si>
   <si>
     <t>preprint 83, Preprintreihe SFB 478 - Geometrische
-Strukturen in der Mathematik, Mathematisches Institut, Westf"alische
-Wilhelms-Universit"at M"unster, F. R. Germany</t>
+Strukturen in der Mathematik, Mathematisches Institut, Westf\"alische
+Wilhelms-Universit\"at M\"unster, F. R. Germany</t>
   </si>
   <si>
     <t>preprint, SFB 478 - Geometrische
-Strukturen in der Mathematik, Mathematisches Institut, Westf"alische
-Wilhelms-Universit"at M"unster, F. R. Germany</t>
-  </si>
-  <si>
-    <t>to appear in it Vestnik Mosk. Univ. Ser. I Mat.-Mekh.</t>
+Strukturen in der Mathematik, Mathematisches Institut, Westf\"alische
+Wilhelms-Universit\"at M\"unster, F. R. Germany</t>
+  </si>
+  <si>
+    <t>to appear in \it Vestnik Mosk. Univ. Ser. I Mat.-Mekh.</t>
   </si>
   <si>
     <t>preprint, Samarkand State Univ. / preprint math.OA/0011053
@@ -15240,7 +15240,7 @@
   </si>
   <si>
     <t>preprint math.OA/0301061 at www.arxiv.org, to appear in
-it Contemp.~Math., AMS</t>
+\it Contemp.~Math., AMS</t>
   </si>
   <si>
     <t>preprint math.OA/0305371 at www.arxiv.org</t>
@@ -15251,21 +15251,21 @@
   </si>
   <si>
     <t>preprint, BTU Cottbus, Cottbus, Germany / submitted to
-it Math.~Notes</t>
+\it Math.~Notes</t>
   </si>
   <si>
     <t>preprint of a book, 360 pp., Brandenburgische Technische
-Universit"at Cottbus, Lehrstuhl f"ur Wahrscheinlichkeitstheorie und
+Universit\"at Cottbus, Lehrstuhl f\"ur Wahrscheinlichkeitstheorie und
 Statistik, Cottbus, Germany</t>
   </si>
   <si>
     <t>Habilitation Thesis, Brandenburgische Technische
-Universit"at Cottbus, Lehrstuhl f"ur Wahrscheinlichkeitstheorie und
+Universit\"at Cottbus, Lehrstuhl f\"ur Wahrscheinlichkeitstheorie und
 Statistik, Cottbus, Germany</t>
   </si>
   <si>
     <t>preprint math.OA/0308230 at www.arxiv.org /
-Universit`a degli Studi del Molise, Dipart. S.E.G.
+Universit\`a degli Studi del Molise, Dipart. S.E.G.
 e S., Campobasso, Italy / Techn. Univ. Cottbus, Cottbus, Germany</t>
   </si>
   <si>
@@ -15285,27 +15285,27 @@
   </si>
   <si>
     <t>preprint math.OA/0202169 at www.arxiv.org / to appear
-in it Glasgow Math. J.</t>
+in \it Glasgow Math. J.</t>
   </si>
   <si>
     <t>preprint math.OA/0106162 at www.arxiv.org</t>
   </si>
   <si>
-    <t>rm Universit"at Heidelberg, Mathematisches Institut,
+    <t>\rm Universit\"at Heidelberg, Mathematisches Institut,
 preprint series of Forschergruppe ''Topologie und Nichtkommutative
 Geometrie'', no. 77, September</t>
   </si>
   <si>
-    <t>preprint, Ruhr-Universit"at Bochum, Fakult"at f"ur
+    <t>preprint, Ruhr-Universit\"at Bochum, Fakult\"at f\"ur
 Mathematik, Bericht-Nr. 173, January</t>
   </si>
   <si>
-    <t>rm Universit"at Heidelberg, Mathematisches Institut,
+    <t>\rm Universit\"at Heidelberg, Mathematisches Institut,
 preprint series of Forschergruppe ''Topologie und Nichtkommutative
 Geometrie'', no. 113, Februar</t>
   </si>
   <si>
-    <t>Max-Planck-Institut f"ur Math., Bonn, preprint
+    <t>Max-Planck-Institut f\"ur Math., Bonn, preprint
 MPI 96-16</t>
   </si>
   <si>
@@ -15320,11 +15320,11 @@
     <t>preprint math.OA/9904002 at www.arxiv.org</t>
   </si>
   <si>
-    <t>preprint MPIM-2000-110, Max-Planck-Institut f"ur
+    <t>preprint MPIM-2000-110, Max-Planck-Institut f\"ur
 Mathematik, Bonn, Germany</t>
   </si>
   <si>
-    <t>preprint MPIM-2000-112, Max-Planck-Institut f"ur
+    <t>preprint MPIM-2000-112, Max-Planck-Institut f\"ur
 Mathematik, Bonn, Germany</t>
   </si>
   <si>
@@ -15358,27 +15358,27 @@
     <t>preprint, Univ. of Nevada, Las Vegas, Nevada, USA</t>
   </si>
   <si>
-    <t>preprints no.1a+1b, Kobenhavns Univ., Matematisk
+    <t>preprints no.1a+1b, K\obenhavns Univ., Matematisk
 Institut, 1989</t>
   </si>
   <si>
-    <t>Forschungsschwerpunkt Geometrie, Universit"at Heidelberg,
-Mathematisches Institut, Heft Nr. 19, M"arz 1988</t>
-  </si>
-  <si>
-    <t>Forschungsschwerpunkt Geometrie, Universit"at Heidelberg,
-Mathematisches Institut, Heft Nr. 20, M"arz 1988</t>
+    <t>Forschungsschwerpunkt Geometrie, Universit\"at Heidelberg,
+Mathematisches Institut, Heft Nr. 19, M\"arz 1988</t>
+  </si>
+  <si>
+    <t>Forschungsschwerpunkt Geometrie, Universit\"at Heidelberg,
+Mathematisches Institut, Heft Nr. 20, M\"arz 1988</t>
   </si>
   <si>
     <t>preprint, Flinders University, Adelaide, Australia /
-submitted to it J. Fourier Anal. Appl.</t>
+submitted to \it J. Fourier Anal. Appl.</t>
   </si>
   <si>
     <t>preprint, Univ. of Victoria, Victoria, B.C., Canada</t>
   </si>
   <si>
     <t>preprint MAPMO 99-25, series Mathematiques et
-Applications, Physique Mathematique d'Orl'eans, Universit'e d'Orl'eans-CNRS,
+Applications, Physique Mathematique d'Orl\'eans, Universit\'e d'Orl\'eans-CNRS,
 UMR 6628, France</t>
   </si>
   <si>
@@ -15390,7 +15390,7 @@
   <si>
     <t>Proc. of a symposium held at RIMS, Kyoto, Jan. 25-27,
 1999, Research Institute for Mathematical Sciences, Kyoto University,
-S=urikaisekikenky=usho K=oky=uroku, v.~1110, 103 pp.,
+S\=urikaisekikenky\=usho K\=oky\=uroku, v.~1110, 103 pp.,
 Kyoto University, RIMS, Kyoto</t>
   </si>
   <si>
@@ -15408,7 +15408,7 @@
 Publ. Series  43, 278 pp.</t>
   </si>
   <si>
-    <t>Basel, Birkh"auser-Verlag, it Oper. Theory, Adv. Appl.</t>
+    <t>Basel, Birkäuser-Verlag, \it Oper. Theory, Adv. Appl.</t>
   </si>
   <si>
     <t>Fields Institute Communications</t>
@@ -15418,10 +15418,10 @@
 Physical Sciences</t>
   </si>
   <si>
-    <t>it Contemp. Math.</t>
-  </si>
-  <si>
-    <t>it Fund. Theories Physics, Kluwer Acad. Publ., Dordrecht</t>
+    <t>\it Contemp. Math.</t>
+  </si>
+  <si>
+    <t>\it Fund. Theories Physics, Kluwer Acad. Publ., Dordrecht</t>
   </si>
   <si>
     <t>NATO Adv. Sci. Inst. Ser. B Phys.</t>
@@ -15434,29 +15434,29 @@
   </si>
   <si>
     <t>15th International Conference on Operator Theory,
-Timicsoara, Romania, June 6-10, 1994, Bucharest, Institute of
+Timi\csoara, Romania, June 6-10, 1994, Bucharest, Institute of
 Mathematics of the Romanian Academy</t>
   </si>
   <si>
-    <t>it Oper. Theory, Adv. Appl.</t>
-  </si>
-  <si>
-    <t>it  Oper. Theory, Adv. Appl.</t>
+    <t>\it Oper. Theory, Adv. Appl.</t>
+  </si>
+  <si>
+    <t>\it  Oper. Theory, Adv. Appl.</t>
   </si>
   <si>
     <t>Pitman Res. Notes Math. v.217</t>
   </si>
   <si>
-    <t>it Proc. Symp. Pure Math.</t>
-  </si>
-  <si>
-    <t>Oper. Theory Adv. Appl.  129, Birkh"auser, Basel</t>
+    <t>\it Proc. Symp. Pure Math.</t>
+  </si>
+  <si>
+    <t>Oper. Theory Adv. Appl.  129, Birkäuser, Basel</t>
   </si>
   <si>
     <t>Research Notes in Mathematics v. 92, Adv. Publ. Program</t>
   </si>
   <si>
-    <t>it Contemp. Math.  228</t>
+    <t>\it Contemp. Math.  228</t>
   </si>
   <si>
     <t>Oper. Theory Adv. Appl. v.~122</t>
@@ -15471,7 +15471,7 @@
     <t>Canad. Math. Soc. Monographs and Advanced Texts</t>
   </si>
   <si>
-    <t>Birkh"auser Adv. Texts: Basler Lehrb"ucher</t>
+    <t>Birkäuser Adv. Texts: Basler Lehrb\"ucher</t>
   </si>
   <si>
     <t>Pitman Research Notes in Mathematics Series v.~270</t>
@@ -15492,13 +15492,13 @@
     <t>Surikaisekikenkyusho Kokyuroku</t>
   </si>
   <si>
-    <t>it Tr. Tbilis. Mat. Inst. A. M. Razmadze</t>
+    <t>\it Tr. Tbilis. Mat. Inst. A. M. Razmadze</t>
   </si>
   <si>
     <t>London Mathematical Society Lecture Note Series  210</t>
   </si>
   <si>
-    <t>it Fields Inst. Commun.</t>
+    <t>\it Fields Inst. Commun.</t>
   </si>
   <si>
     <t>Ergebnisse der Mathematik und ihrer Grenzgebiete, 3.~Folge /
@@ -15555,7 +15555,7 @@
   </si>
   <si>
     <t>Proc. XIV. Workshop on Geometric Methods in Physics,
-Bial owie.za, Poland, 1995, Polish Scientific Publishers, Warszaw</t>
+Bia\l owie\.za, Poland, 1995, Polish Scientific Publishers, Warszaw</t>
   </si>
   <si>
     <t>Sommer Research Conference, Bruswick, July 23-29, 1988</t>
